--- a/biology/Zoologie/Chardonneret_d'eau/Chardonneret_d'eau.xlsx
+++ b/biology/Zoologie/Chardonneret_d'eau/Chardonneret_d'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chardonneret_d%27eau</t>
+          <t>Chardonneret_d'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pristella maxillaris souvent appelé Chardonneret d'eau ou Tétra pristella, est un petit poisson (taille maximale 5 cm) communément élevé en aquarium d'eau douce. C'est la seule espèce du genre Pristella (monotypique). Cette espèce était anciennement connue sous le nom de Pristella riddlei (Meek in Eigenmann et Ogle, 1907), appellation désormais non valide. Il est originaire du bassin de l'Amazone (Brésil et Venezuela).
 Il ne fait pas partie des poissons les plus colorés, mais attire par sa brillance et sa transparence, sa taille raisonnable, sa facilité de maintenance et de reproduction et son comportement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chardonneret_d%27eau</t>
+          <t>Chardonneret_d'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Coloration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abdomen est brillant, les muscles presque transparents. On devine la colonne vertébrale, sans la voir aussi bien que chez d'autres poissons de verre, comme Kryptopterus bicirrhis ou Parambassis ranga.
 Des taches jaunes, blanches et noires décorent les nageoires dorsale et anale.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chardonneret_d%27eau</t>
+          <t>Chardonneret_d'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'originaire des eaux très douces d'Amérique du Sud, il s'adapte à toutes les eaux d'une dureté raisonnable.
 Il nage volontiers en groupe en pleine eau et n'est pas timide.
